--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il1b-Il1r2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il1b-Il1r2.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.06023933333333334</v>
+        <v>1.110304666666667</v>
       </c>
       <c r="H2">
-        <v>0.180718</v>
+        <v>3.330914</v>
       </c>
       <c r="I2">
-        <v>9.651065048389373E-05</v>
+        <v>0.002248635597361828</v>
       </c>
       <c r="J2">
-        <v>9.65189777332922E-05</v>
+        <v>0.002251019941945068</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.15683</v>
+        <v>0.1124096666666667</v>
       </c>
       <c r="N2">
-        <v>0.47049</v>
+        <v>0.337229</v>
       </c>
       <c r="O2">
-        <v>0.005895093830118167</v>
+        <v>0.0063156040276642</v>
       </c>
       <c r="P2">
-        <v>0.005909707522044401</v>
+        <v>0.0063960530566531</v>
       </c>
       <c r="Q2">
-        <v>0.009447334646666668</v>
+        <v>0.1248089774784445</v>
       </c>
       <c r="R2">
-        <v>0.08502601182000001</v>
+        <v>1.123280797306</v>
       </c>
       <c r="S2">
-        <v>5.689393402082928E-07</v>
+        <v>1.420149203544745E-05</v>
       </c>
       <c r="T2">
-        <v>5.70398928730473E-07</v>
+        <v>1.439764298026484E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.06023933333333334</v>
+        <v>1.110304666666667</v>
       </c>
       <c r="H3">
-        <v>0.180718</v>
+        <v>3.330914</v>
       </c>
       <c r="I3">
-        <v>9.651065048389373E-05</v>
+        <v>0.002248635597361828</v>
       </c>
       <c r="J3">
-        <v>9.65189777332922E-05</v>
+        <v>0.002251019941945068</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>6.484987</v>
       </c>
       <c r="O3">
-        <v>0.08125487651617787</v>
+        <v>0.1214504387717248</v>
       </c>
       <c r="P3">
-        <v>0.08145630396875631</v>
+        <v>0.1229974910927163</v>
       </c>
       <c r="Q3">
-        <v>0.1302170978517778</v>
+        <v>2.400103776457556</v>
       </c>
       <c r="R3">
-        <v>1.171953880666</v>
+        <v>21.600933988118</v>
       </c>
       <c r="S3">
-        <v>7.841960987564786E-06</v>
+        <v>0.0002730977799373134</v>
       </c>
       <c r="T3">
-        <v>7.862079188996671E-06</v>
+        <v>0.0002768698052589153</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.06023933333333334</v>
+        <v>1.110304666666667</v>
       </c>
       <c r="H4">
-        <v>0.180718</v>
+        <v>3.330914</v>
       </c>
       <c r="I4">
-        <v>9.651065048389373E-05</v>
+        <v>0.002248635597361828</v>
       </c>
       <c r="J4">
-        <v>9.65189777332922E-05</v>
+        <v>0.002251019941945068</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.944413999999999</v>
+        <v>10.589294</v>
       </c>
       <c r="N4">
-        <v>17.833242</v>
+        <v>31.767882</v>
       </c>
       <c r="O4">
-        <v>0.2234449932734046</v>
+        <v>0.5949469455757395</v>
       </c>
       <c r="P4">
-        <v>0.2239989040996368</v>
+        <v>0.6025254612429388</v>
       </c>
       <c r="Q4">
-        <v>0.3580875364173333</v>
+        <v>11.75734254490533</v>
       </c>
       <c r="R4">
-        <v>3.222787827756</v>
+        <v>105.816082904148</v>
       </c>
       <c r="S4">
-        <v>2.156482164818554E-05</v>
+        <v>0.001337818880363298</v>
       </c>
       <c r="T4">
-        <v>2.16201452370747E-05</v>
+        <v>0.001356296828787506</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.06023933333333334</v>
+        <v>1.110304666666667</v>
       </c>
       <c r="H5">
-        <v>0.180718</v>
+        <v>3.330914</v>
       </c>
       <c r="I5">
-        <v>9.651065048389373E-05</v>
+        <v>0.002248635597361828</v>
       </c>
       <c r="J5">
-        <v>9.65189777332922E-05</v>
+        <v>0.002251019941945068</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1973575</v>
+        <v>0.6716124999999999</v>
       </c>
       <c r="N5">
-        <v>0.394715</v>
+        <v>1.343225</v>
       </c>
       <c r="O5">
-        <v>0.007418484859896359</v>
+        <v>0.03773375311758142</v>
       </c>
       <c r="P5">
-        <v>0.004957916649798626</v>
+        <v>0.02547627388813791</v>
       </c>
       <c r="Q5">
-        <v>0.01188868422833333</v>
+        <v>0.7456944929416667</v>
       </c>
       <c r="R5">
-        <v>0.07133210537000001</v>
+        <v>4.47416695765</v>
       </c>
       <c r="S5">
-        <v>7.159627994335149E-07</v>
+        <v>8.484946048225642E-05</v>
       </c>
       <c r="T5">
-        <v>4.785330467254322E-07</v>
+        <v>5.734760056865286E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.06023933333333334</v>
+        <v>1.110304666666667</v>
       </c>
       <c r="H6">
-        <v>0.180718</v>
+        <v>3.330914</v>
       </c>
       <c r="I6">
-        <v>9.651065048389373E-05</v>
+        <v>0.002248635597361828</v>
       </c>
       <c r="J6">
-        <v>9.65189777332922E-05</v>
+        <v>0.002251019941945068</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.14321433333333</v>
+        <v>4.263741333333333</v>
       </c>
       <c r="N6">
-        <v>54.42964299999999</v>
+        <v>12.791224</v>
       </c>
       <c r="O6">
-        <v>0.681986551520403</v>
+        <v>0.2395532585072902</v>
       </c>
       <c r="P6">
-        <v>0.6836771677597638</v>
+        <v>0.2426047207195541</v>
       </c>
       <c r="Q6">
-        <v>1.092935135963778</v>
+        <v>4.734051899859556</v>
       </c>
       <c r="R6">
-        <v>9.836416223674</v>
+        <v>42.606467098736</v>
       </c>
       <c r="S6">
-        <v>6.58189657085016E-05</v>
+        <v>0.0005386679845435128</v>
       </c>
       <c r="T6">
-        <v>6.598782133176492E-05</v>
+        <v>0.0005461080643497301</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.05812166666666668</v>
+        <v>0.05812166666666666</v>
       </c>
       <c r="H7">
         <v>0.174365</v>
       </c>
       <c r="I7">
-        <v>9.311789402065168E-05</v>
+        <v>0.0001177104380161106</v>
       </c>
       <c r="J7">
-        <v>9.3125928532108E-05</v>
+        <v>0.0001178352524794251</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,28 +868,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.15683</v>
+        <v>0.1124096666666667</v>
       </c>
       <c r="N7">
-        <v>0.47049</v>
+        <v>0.337229</v>
       </c>
       <c r="O7">
-        <v>0.005895093830118167</v>
+        <v>0.0063156040276642</v>
       </c>
       <c r="P7">
-        <v>0.005909707522044401</v>
+        <v>0.0063960530566531</v>
       </c>
       <c r="Q7">
-        <v>0.009115220983333335</v>
+        <v>0.006533437176111111</v>
       </c>
       <c r="R7">
-        <v>0.08203698885000001</v>
+        <v>0.058800934585</v>
       </c>
       <c r="S7">
-        <v>5.489387225147411E-07</v>
+        <v>7.434125164326652E-07</v>
       </c>
       <c r="T7">
-        <v>5.50347000343568E-07</v>
+        <v>7.536805268025168E-07</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.05812166666666668</v>
+        <v>0.05812166666666666</v>
       </c>
       <c r="H8">
         <v>0.174365</v>
       </c>
       <c r="I8">
-        <v>9.311789402065168E-05</v>
+        <v>0.0001177104380161106</v>
       </c>
       <c r="J8">
-        <v>9.3125928532108E-05</v>
+        <v>0.0001178352524794251</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>6.484987</v>
       </c>
       <c r="O8">
-        <v>0.08125487651617787</v>
+        <v>0.1214504387717248</v>
       </c>
       <c r="P8">
-        <v>0.08145630396875631</v>
+        <v>0.1229974910927163</v>
       </c>
       <c r="Q8">
         <v>0.1256394175838889</v>
@@ -948,10 +948,10 @@
         <v>1.130754758255</v>
       </c>
       <c r="S8">
-        <v>7.56628298009459E-06</v>
+        <v>1.429598434506855E-05</v>
       </c>
       <c r="T8">
-        <v>7.585693941884065E-06</v>
+        <v>1.449344041724607E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.05812166666666668</v>
+        <v>0.05812166666666666</v>
       </c>
       <c r="H9">
         <v>0.174365</v>
       </c>
       <c r="I9">
-        <v>9.311789402065168E-05</v>
+        <v>0.0001177104380161106</v>
       </c>
       <c r="J9">
-        <v>9.3125928532108E-05</v>
+        <v>0.0001178352524794251</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.944413999999999</v>
+        <v>10.589294</v>
       </c>
       <c r="N9">
-        <v>17.833242</v>
+        <v>31.767882</v>
       </c>
       <c r="O9">
-        <v>0.2234449932734046</v>
+        <v>0.5949469455757395</v>
       </c>
       <c r="P9">
-        <v>0.2239989040996368</v>
+        <v>0.6025254612429388</v>
       </c>
       <c r="Q9">
-        <v>0.3454992490366667</v>
+        <v>0.6154674161033333</v>
       </c>
       <c r="R9">
-        <v>3.10949324133</v>
+        <v>5.53920674493</v>
       </c>
       <c r="S9">
-        <v>2.080672720307812E-05</v>
+        <v>7.003146556006739E-05</v>
       </c>
       <c r="T9">
-        <v>2.086010593445329E-05</v>
+        <v>7.099873985084377E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,46 +1036,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.05812166666666668</v>
+        <v>0.05812166666666666</v>
       </c>
       <c r="H10">
         <v>0.174365</v>
       </c>
       <c r="I10">
-        <v>9.311789402065168E-05</v>
+        <v>0.0001177104380161106</v>
       </c>
       <c r="J10">
-        <v>9.3125928532108E-05</v>
+        <v>0.0001178352524794251</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1973575</v>
+        <v>0.6716124999999999</v>
       </c>
       <c r="N10">
-        <v>0.394715</v>
+        <v>1.343225</v>
       </c>
       <c r="O10">
-        <v>0.007418484859896359</v>
+        <v>0.03773375311758142</v>
       </c>
       <c r="P10">
-        <v>0.004957916649798626</v>
+        <v>0.02547627388813791</v>
       </c>
       <c r="Q10">
-        <v>0.01147074682916667</v>
+        <v>0.03903523785416666</v>
       </c>
       <c r="R10">
-        <v>0.068824480975</v>
+        <v>0.234211427125</v>
       </c>
       <c r="S10">
-        <v>6.907936869776382E-07</v>
+        <v>4.441656607462287E-06</v>
       </c>
       <c r="T10">
-        <v>4.617105915972952E-07</v>
+        <v>3.002003165843716E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.05812166666666668</v>
+        <v>0.05812166666666666</v>
       </c>
       <c r="H11">
         <v>0.174365</v>
       </c>
       <c r="I11">
-        <v>9.311789402065168E-05</v>
+        <v>0.0001177104380161106</v>
       </c>
       <c r="J11">
-        <v>9.3125928532108E-05</v>
+        <v>0.0001178352524794251</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>18.14321433333333</v>
+        <v>4.263741333333333</v>
       </c>
       <c r="N11">
-        <v>54.42964299999999</v>
+        <v>12.791224</v>
       </c>
       <c r="O11">
-        <v>0.681986551520403</v>
+        <v>0.2395532585072902</v>
       </c>
       <c r="P11">
-        <v>0.6836771677597638</v>
+        <v>0.2426047207195541</v>
       </c>
       <c r="Q11">
-        <v>1.054513855743889</v>
+        <v>0.2478157525288888</v>
       </c>
       <c r="R11">
-        <v>9.490624701694999</v>
+        <v>2.23034177276</v>
       </c>
       <c r="S11">
-        <v>6.350515142798659E-05</v>
+        <v>2.81979189870797E-05</v>
       </c>
       <c r="T11">
-        <v>6.366807106382978E-05</v>
+        <v>2.858738851868907E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>270.7693163333333</v>
+        <v>357.7495016666667</v>
       </c>
       <c r="H12">
-        <v>812.307949</v>
+        <v>1073.248505</v>
       </c>
       <c r="I12">
-        <v>0.4338049809716108</v>
+        <v>0.724529301314403</v>
       </c>
       <c r="J12">
-        <v>0.4338424110609195</v>
+        <v>0.7252975571923297</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1178,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.15683</v>
+        <v>0.1124096666666667</v>
       </c>
       <c r="N12">
-        <v>0.47049</v>
+        <v>0.337229</v>
       </c>
       <c r="O12">
-        <v>0.005895093830118167</v>
+        <v>0.0063156040276642</v>
       </c>
       <c r="P12">
-        <v>0.005909707522044401</v>
+        <v>0.0063960530566531</v>
       </c>
       <c r="Q12">
-        <v>42.46475188055667</v>
+        <v>40.21450223251611</v>
       </c>
       <c r="R12">
-        <v>382.18276692501</v>
+        <v>361.930520092645</v>
       </c>
       <c r="S12">
-        <v>0.002557321066800271</v>
+        <v>0.004575840173541972</v>
       </c>
       <c r="T12">
-        <v>0.002563881760028595</v>
+        <v>0.004639041657663027</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>270.7693163333333</v>
+        <v>357.7495016666667</v>
       </c>
       <c r="H13">
-        <v>812.307949</v>
+        <v>1073.248505</v>
       </c>
       <c r="I13">
-        <v>0.4338049809716108</v>
+        <v>0.724529301314403</v>
       </c>
       <c r="J13">
-        <v>0.4338424110609195</v>
+        <v>0.7252975571923297</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>6.484987</v>
       </c>
       <c r="O13">
-        <v>0.08125487651617787</v>
+        <v>0.1214504387717248</v>
       </c>
       <c r="P13">
-        <v>0.08145630396875631</v>
+        <v>0.1229974910927163</v>
       </c>
       <c r="Q13">
-        <v>585.3118321401848</v>
+        <v>773.333622521604</v>
       </c>
       <c r="R13">
-        <v>5267.806489261663</v>
+        <v>6960.002602694435</v>
       </c>
       <c r="S13">
-        <v>0.03524877016095113</v>
+        <v>0.08799440154760543</v>
       </c>
       <c r="T13">
-        <v>0.03533919930991638</v>
+        <v>0.08920977983033244</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>270.7693163333333</v>
+        <v>357.7495016666667</v>
       </c>
       <c r="H14">
-        <v>812.307949</v>
+        <v>1073.248505</v>
       </c>
       <c r="I14">
-        <v>0.4338049809716108</v>
+        <v>0.724529301314403</v>
       </c>
       <c r="J14">
-        <v>0.4338424110609195</v>
+        <v>0.7252975571923297</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.944413999999999</v>
+        <v>10.589294</v>
       </c>
       <c r="N14">
-        <v>17.833242</v>
+        <v>31.767882</v>
       </c>
       <c r="O14">
-        <v>0.2234449932734046</v>
+        <v>0.5949469455757395</v>
       </c>
       <c r="P14">
-        <v>0.2239989040996368</v>
+        <v>0.6025254612429388</v>
       </c>
       <c r="Q14">
-        <v>1609.564914782295</v>
+        <v>3788.314651501824</v>
       </c>
       <c r="R14">
-        <v>14486.08423304066</v>
+        <v>34094.83186351641</v>
       </c>
       <c r="S14">
-        <v>0.096931551055171</v>
+        <v>0.4310564947971287</v>
       </c>
       <c r="T14">
-        <v>0.09718022462959011</v>
+        <v>0.4370102451856853</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,46 +1346,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>270.7693163333333</v>
+        <v>357.7495016666667</v>
       </c>
       <c r="H15">
-        <v>812.307949</v>
+        <v>1073.248505</v>
       </c>
       <c r="I15">
-        <v>0.4338049809716108</v>
+        <v>0.724529301314403</v>
       </c>
       <c r="J15">
-        <v>0.4338424110609195</v>
+        <v>0.7252975571923297</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.1973575</v>
+        <v>0.6716124999999999</v>
       </c>
       <c r="N15">
-        <v>0.394715</v>
+        <v>1.343225</v>
       </c>
       <c r="O15">
-        <v>0.007418484859896359</v>
+        <v>0.03773375311758142</v>
       </c>
       <c r="P15">
-        <v>0.004957916649798626</v>
+        <v>0.02547627388813791</v>
       </c>
       <c r="Q15">
-        <v>53.43835534825583</v>
+        <v>240.2690371881042</v>
       </c>
       <c r="R15">
-        <v>320.630132089535</v>
+        <v>1441.614223128625</v>
       </c>
       <c r="S15">
-        <v>0.003218175683485523</v>
+        <v>0.02733920978225144</v>
       </c>
       <c r="T15">
-        <v>0.002150954513187712</v>
+        <v>0.01847787921742916</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>270.7693163333333</v>
+        <v>357.7495016666667</v>
       </c>
       <c r="H16">
-        <v>812.307949</v>
+        <v>1073.248505</v>
       </c>
       <c r="I16">
-        <v>0.4338049809716108</v>
+        <v>0.724529301314403</v>
       </c>
       <c r="J16">
-        <v>0.4338424110609195</v>
+        <v>0.7252975571923297</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>18.14321433333333</v>
+        <v>4.263741333333333</v>
       </c>
       <c r="N16">
-        <v>54.42964299999999</v>
+        <v>12.791224</v>
       </c>
       <c r="O16">
-        <v>0.681986551520403</v>
+        <v>0.2395532585072902</v>
       </c>
       <c r="P16">
-        <v>0.6836771677597638</v>
+        <v>0.2426047207195541</v>
       </c>
       <c r="Q16">
-        <v>4912.625741125799</v>
+        <v>1525.351337235569</v>
       </c>
       <c r="R16">
-        <v>44213.6316701322</v>
+        <v>13728.16203512012</v>
       </c>
       <c r="S16">
-        <v>0.2958491630052029</v>
+        <v>0.1735633550138755</v>
       </c>
       <c r="T16">
-        <v>0.2966081508481966</v>
+        <v>0.1759606113012199</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>0.5</v>
       </c>
       <c r="G17">
-        <v>0.161553</v>
+        <v>1.56904</v>
       </c>
       <c r="H17">
-        <v>0.323106</v>
+        <v>3.13808</v>
       </c>
       <c r="I17">
-        <v>0.0002588273185453217</v>
+        <v>0.003177685642155218</v>
       </c>
       <c r="J17">
-        <v>0.0001725664339993421</v>
+        <v>0.002120703404356576</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1488,28 +1488,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.15683</v>
+        <v>0.1124096666666667</v>
       </c>
       <c r="N17">
-        <v>0.47049</v>
+        <v>0.337229</v>
       </c>
       <c r="O17">
-        <v>0.005895093830118167</v>
+        <v>0.0063156040276642</v>
       </c>
       <c r="P17">
-        <v>0.005909707522044401</v>
+        <v>0.0063960530566531</v>
       </c>
       <c r="Q17">
-        <v>0.02533635699</v>
+        <v>0.1763752633866667</v>
       </c>
       <c r="R17">
-        <v>0.15201814194</v>
+        <v>1.05825158032</v>
       </c>
       <c r="S17">
-        <v>1.525811328622555E-06</v>
+        <v>2.006900424024619E-05</v>
       </c>
       <c r="T17">
-        <v>1.019817153058291E-06</v>
+        <v>1.356413149168951E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>0.5</v>
       </c>
       <c r="G18">
-        <v>0.161553</v>
+        <v>1.56904</v>
       </c>
       <c r="H18">
-        <v>0.323106</v>
+        <v>3.13808</v>
       </c>
       <c r="I18">
-        <v>0.0002588273185453217</v>
+        <v>0.003177685642155218</v>
       </c>
       <c r="J18">
-        <v>0.0001725664339993421</v>
+        <v>0.002120703404356576</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>6.484987</v>
       </c>
       <c r="O18">
-        <v>0.08125487651617787</v>
+        <v>0.1214504387717248</v>
       </c>
       <c r="P18">
-        <v>0.08145630396875631</v>
+        <v>0.1229974910927163</v>
       </c>
       <c r="Q18">
-        <v>0.349223034937</v>
+        <v>3.391734667493334</v>
       </c>
       <c r="R18">
-        <v>2.095338209622</v>
+        <v>20.35040800496</v>
       </c>
       <c r="S18">
-        <v>2.103098180741355E-05</v>
+        <v>0.0003859313155183613</v>
       </c>
       <c r="T18">
-        <v>1.405662390265473E-05</v>
+        <v>0.0002608411980876411</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>0.5</v>
       </c>
       <c r="G19">
-        <v>0.161553</v>
+        <v>1.56904</v>
       </c>
       <c r="H19">
-        <v>0.323106</v>
+        <v>3.13808</v>
       </c>
       <c r="I19">
-        <v>0.0002588273185453217</v>
+        <v>0.003177685642155218</v>
       </c>
       <c r="J19">
-        <v>0.0001725664339993421</v>
+        <v>0.002120703404356576</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.944413999999999</v>
+        <v>10.589294</v>
       </c>
       <c r="N19">
-        <v>17.833242</v>
+        <v>31.767882</v>
       </c>
       <c r="O19">
-        <v>0.2234449932734046</v>
+        <v>0.5949469455757395</v>
       </c>
       <c r="P19">
-        <v>0.2239989040996368</v>
+        <v>0.6025254612429388</v>
       </c>
       <c r="Q19">
-        <v>0.9603379149419999</v>
+        <v>16.61502585776</v>
       </c>
       <c r="R19">
-        <v>5.762027489652</v>
+        <v>99.69015514656</v>
       </c>
       <c r="S19">
-        <v>5.783366845133277E-05</v>
+        <v>0.001890554366800129</v>
       </c>
       <c r="T19">
-        <v>3.865469210023494E-05</v>
+        <v>0.001277777796869417</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,46 +1656,46 @@
         <v>0.5</v>
       </c>
       <c r="G20">
-        <v>0.161553</v>
+        <v>1.56904</v>
       </c>
       <c r="H20">
-        <v>0.323106</v>
+        <v>3.13808</v>
       </c>
       <c r="I20">
-        <v>0.0002588273185453217</v>
+        <v>0.003177685642155218</v>
       </c>
       <c r="J20">
-        <v>0.0001725664339993421</v>
+        <v>0.002120703404356576</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.1973575</v>
+        <v>0.6716124999999999</v>
       </c>
       <c r="N20">
-        <v>0.394715</v>
+        <v>1.343225</v>
       </c>
       <c r="O20">
-        <v>0.007418484859896359</v>
+        <v>0.03773375311758142</v>
       </c>
       <c r="P20">
-        <v>0.004957916649798626</v>
+        <v>0.02547627388813791</v>
       </c>
       <c r="Q20">
-        <v>0.0318836961975</v>
+        <v>1.053786877</v>
       </c>
       <c r="R20">
-        <v>0.12753478479</v>
+        <v>4.215147507999999</v>
       </c>
       <c r="S20">
-        <v>1.920106543956041E-06</v>
+        <v>0.0001199060055063682</v>
       </c>
       <c r="T20">
-        <v>8.555699963217139E-07</v>
+        <v>5.402762076489462E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>0.5</v>
       </c>
       <c r="G21">
-        <v>0.161553</v>
+        <v>1.56904</v>
       </c>
       <c r="H21">
-        <v>0.323106</v>
+        <v>3.13808</v>
       </c>
       <c r="I21">
-        <v>0.0002588273185453217</v>
+        <v>0.003177685642155218</v>
       </c>
       <c r="J21">
-        <v>0.0001725664339993421</v>
+        <v>0.002120703404356576</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>18.14321433333333</v>
+        <v>4.263741333333333</v>
       </c>
       <c r="N21">
-        <v>54.42964299999999</v>
+        <v>12.791224</v>
       </c>
       <c r="O21">
-        <v>0.681986551520403</v>
+        <v>0.2395532585072902</v>
       </c>
       <c r="P21">
-        <v>0.6836771677597638</v>
+        <v>0.2426047207195541</v>
       </c>
       <c r="Q21">
-        <v>2.931090705192999</v>
+        <v>6.689980701653333</v>
       </c>
       <c r="R21">
-        <v>17.586544231158</v>
+        <v>40.13988420992</v>
       </c>
       <c r="S21">
-        <v>0.0001765167504139968</v>
+        <v>0.0007612249500901134</v>
       </c>
       <c r="T21">
-        <v>0.0001179797308470724</v>
+        <v>0.0005144926571429347</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>353.1236773333333</v>
+        <v>133.2811943333333</v>
       </c>
       <c r="H22">
-        <v>1059.371032</v>
+        <v>399.843583</v>
       </c>
       <c r="I22">
-        <v>0.5657465631653393</v>
+        <v>0.2699266670080639</v>
       </c>
       <c r="J22">
-        <v>0.5657953775988157</v>
+        <v>0.2702128842088893</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1798,28 +1798,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.15683</v>
+        <v>0.1124096666666667</v>
       </c>
       <c r="N22">
-        <v>0.47049</v>
+        <v>0.337229</v>
       </c>
       <c r="O22">
-        <v>0.005895093830118167</v>
+        <v>0.0063156040276642</v>
       </c>
       <c r="P22">
-        <v>0.005909707522044401</v>
+        <v>0.0063960530566531</v>
       </c>
       <c r="Q22">
-        <v>55.38038631618667</v>
+        <v>14.98209462794522</v>
       </c>
       <c r="R22">
-        <v>498.42347684568</v>
+        <v>134.838851651507</v>
       </c>
       <c r="S22">
-        <v>0.003335129073926549</v>
+        <v>0.001704749945330102</v>
       </c>
       <c r="T22">
-        <v>0.003343685198933673</v>
+        <v>0.001728295943991316</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>353.1236773333333</v>
+        <v>133.2811943333333</v>
       </c>
       <c r="H23">
-        <v>1059.371032</v>
+        <v>399.843583</v>
       </c>
       <c r="I23">
-        <v>0.5657465631653393</v>
+        <v>0.2699266670080639</v>
       </c>
       <c r="J23">
-        <v>0.5657953775988157</v>
+        <v>0.2702128842088893</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>6.484987</v>
       </c>
       <c r="O23">
-        <v>0.08125487651617787</v>
+        <v>0.1214504387717248</v>
       </c>
       <c r="P23">
-        <v>0.08145630396875631</v>
+        <v>0.1229974910927163</v>
       </c>
       <c r="Q23">
-        <v>763.3341522996205</v>
+        <v>288.1089375320468</v>
       </c>
       <c r="R23">
-        <v>6870.007370696584</v>
+        <v>2592.980437788421</v>
       </c>
       <c r="S23">
-        <v>0.04596966712945167</v>
+        <v>0.03278271214431862</v>
       </c>
       <c r="T23">
-        <v>0.04608760026180638</v>
+        <v>0.03323550681862004</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>353.1236773333333</v>
+        <v>133.2811943333333</v>
       </c>
       <c r="H24">
-        <v>1059.371032</v>
+        <v>399.843583</v>
       </c>
       <c r="I24">
-        <v>0.5657465631653393</v>
+        <v>0.2699266670080639</v>
       </c>
       <c r="J24">
-        <v>0.5657953775988157</v>
+        <v>0.2702128842088893</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.944413999999999</v>
+        <v>10.589294</v>
       </c>
       <c r="N24">
-        <v>17.833242</v>
+        <v>31.767882</v>
       </c>
       <c r="O24">
-        <v>0.2234449932734046</v>
+        <v>0.5949469455757395</v>
       </c>
       <c r="P24">
-        <v>0.2239989040996368</v>
+        <v>0.6025254612429388</v>
       </c>
       <c r="Q24">
-        <v>2099.113331271749</v>
+        <v>1411.353751466801</v>
       </c>
       <c r="R24">
-        <v>18892.01998144574</v>
+        <v>12702.18376320121</v>
       </c>
       <c r="S24">
-        <v>0.126413237000931</v>
+        <v>0.1605920460658874</v>
       </c>
       <c r="T24">
-        <v>0.1267375445267749</v>
+        <v>0.1628101426917458</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,46 +1966,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>353.1236773333333</v>
+        <v>133.2811943333333</v>
       </c>
       <c r="H25">
-        <v>1059.371032</v>
+        <v>399.843583</v>
       </c>
       <c r="I25">
-        <v>0.5657465631653393</v>
+        <v>0.2699266670080639</v>
       </c>
       <c r="J25">
-        <v>0.5657953775988157</v>
+        <v>0.2702128842088893</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.1973575</v>
+        <v>0.6716124999999999</v>
       </c>
       <c r="N25">
-        <v>0.394715</v>
+        <v>1.343225</v>
       </c>
       <c r="O25">
-        <v>0.007418484859896359</v>
+        <v>0.03773375311758142</v>
       </c>
       <c r="P25">
-        <v>0.004957916649798626</v>
+        <v>0.02547627388813791</v>
       </c>
       <c r="Q25">
-        <v>69.69160614931333</v>
+        <v>89.51331612919583</v>
       </c>
       <c r="R25">
-        <v>418.14963689588</v>
+        <v>537.079896775175</v>
       </c>
       <c r="S25">
-        <v>0.004196982313380469</v>
+        <v>0.01018534621273389</v>
       </c>
       <c r="T25">
-        <v>0.002805166322976269</v>
+        <v>0.006884017446209359</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>353.1236773333333</v>
+        <v>133.2811943333333</v>
       </c>
       <c r="H26">
-        <v>1059.371032</v>
+        <v>399.843583</v>
       </c>
       <c r="I26">
-        <v>0.5657465631653393</v>
+        <v>0.2699266670080639</v>
       </c>
       <c r="J26">
-        <v>0.5657953775988157</v>
+        <v>0.2702128842088893</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>18.14321433333333</v>
+        <v>4.263741333333333</v>
       </c>
       <c r="N26">
-        <v>54.42964299999999</v>
+        <v>12.791224</v>
       </c>
       <c r="O26">
-        <v>0.681986551520403</v>
+        <v>0.2395532585072902</v>
       </c>
       <c r="P26">
-        <v>0.6836771677597638</v>
+        <v>0.2426047207195541</v>
       </c>
       <c r="Q26">
-        <v>6406.798564033506</v>
+        <v>568.2765372350657</v>
       </c>
       <c r="R26">
-        <v>57661.18707630157</v>
+        <v>5114.488835115592</v>
       </c>
       <c r="S26">
-        <v>0.3858315476476496</v>
+        <v>0.06466181263979398</v>
       </c>
       <c r="T26">
-        <v>0.3868213812883244</v>
+        <v>0.06555492130832279</v>
       </c>
     </row>
   </sheetData>
